--- a/results/SourceMeter/C - SourceMeter (RossetaCode).xlsx
+++ b/results/SourceMeter/C - SourceMeter (RossetaCode).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PREBACIVANJE (D)\UROS - IT\PMF\MASTER\Napredne teme softverskog inženjerstva\Seminarski rad\SourceMeter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PREBACIVANJE (D)\UROS - IT\PMF\MASTER\Napredne teme softverskog inženjerstva\Seminarski rad\results\SourceMeter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>aks-test-for-primes.c</t>
   </si>
@@ -158,113 +158,17 @@
     <t>METHODS</t>
   </si>
   <si>
-    <t>JAVA AVERAGE</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Java</t>
-  </si>
-  <si>
-    <t>Languages</t>
-  </si>
-  <si>
-    <t>Metrics</t>
-  </si>
-  <si>
-    <t>Halstead Length</t>
-  </si>
-  <si>
-    <t>Halstead Volume</t>
-  </si>
-  <si>
-    <t>McCabe's Cyclomatic</t>
-  </si>
-  <si>
-    <t>Number of Invocation</t>
-  </si>
-  <si>
-    <t>Physical LOC</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Logical LOC</t>
-  </si>
-  <si>
-    <t>Total Logical LOC</t>
-  </si>
-  <si>
-    <t>Total Physical LOC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Experiment </t>
-  </si>
-  <si>
-    <t>138 methods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyclomatic Complexity </t>
-  </si>
-  <si>
-    <t>Maintainability</t>
-  </si>
-  <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>Unique</t>
-  </si>
-  <si>
-    <t>Operands</t>
-  </si>
-  <si>
-    <t>Operators</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>10 082</t>
-  </si>
-  <si>
-    <t>1 430</t>
-  </si>
-  <si>
-    <t>3 823</t>
-  </si>
-  <si>
-    <t>1 142</t>
-  </si>
-  <si>
-    <t>3 834</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Minimum</t>
-  </si>
-  <si>
-    <t>Maximum</t>
-  </si>
-  <si>
-    <t>Standard deviation</t>
-  </si>
-  <si>
-    <t>Variance</t>
-  </si>
-  <si>
-    <t>1 110</t>
+    <t>HVOL</t>
+  </si>
+  <si>
+    <t>MI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,72 +198,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000055"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB3B3B3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD0D0FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -430,15 +278,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -461,78 +300,21 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -542,7 +324,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -571,94 +352,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -940,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AH62"/>
+  <dimension ref="B2:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14:AG21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -956,66 +664,66 @@
     <col min="28" max="28" width="47.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-    </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-    </row>
-    <row r="4" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="7" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+    </row>
+    <row r="4" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="1">
@@ -1024,10 +732,10 @@
       <c r="D5" s="1">
         <v>21</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>3.5</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>4</v>
       </c>
       <c r="G5" s="1">
@@ -1039,14 +747,14 @@
       <c r="I5" s="1">
         <v>36</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="18">
         <v>43</v>
       </c>
       <c r="K5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
@@ -1056,10 +764,10 @@
       <c r="D6" s="1">
         <v>28.25</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>2.75</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <v>1</v>
       </c>
       <c r="G6" s="1">
@@ -1071,14 +779,14 @@
       <c r="I6" s="1">
         <v>35</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="9">
         <v>51</v>
       </c>
       <c r="K6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
@@ -1088,10 +796,10 @@
       <c r="D7" s="1">
         <v>27</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <v>3</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>0</v>
       </c>
       <c r="G7" s="1">
@@ -1103,14 +811,14 @@
       <c r="I7" s="1">
         <v>18</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="9">
         <v>33</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
@@ -1120,10 +828,10 @@
       <c r="D8" s="1">
         <v>24.333333333333332</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>2.6666666666666665</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>2</v>
       </c>
       <c r="G8" s="1">
@@ -1135,14 +843,14 @@
       <c r="I8" s="1">
         <v>30</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="9">
         <v>34</v>
       </c>
       <c r="K8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
@@ -1152,10 +860,10 @@
       <c r="D9" s="1">
         <v>32</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <v>3.3333333333333335</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>2</v>
       </c>
       <c r="G9" s="1">
@@ -1167,14 +875,14 @@
       <c r="I9" s="1">
         <v>41</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="9">
         <v>45</v>
       </c>
       <c r="K9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1184,10 +892,10 @@
       <c r="D10" s="1">
         <v>22.5</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>3.5</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>1</v>
       </c>
       <c r="G10" s="1">
@@ -1199,14 +907,14 @@
       <c r="I10" s="1">
         <v>25</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="9">
         <v>28</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1216,10 +924,10 @@
       <c r="D11" s="1">
         <v>22.333333333333332</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <v>2.6666666666666665</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>6</v>
       </c>
       <c r="G11" s="1">
@@ -1231,14 +939,14 @@
       <c r="I11" s="1">
         <v>99</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="9">
         <v>103</v>
       </c>
       <c r="K11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
@@ -1248,10 +956,10 @@
       <c r="D12" s="1">
         <v>26</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="9">
         <v>3.5</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <v>2</v>
       </c>
       <c r="G12" s="1">
@@ -1263,14 +971,14 @@
       <c r="I12" s="1">
         <v>42</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="9">
         <v>44</v>
       </c>
       <c r="K12">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
@@ -1280,10 +988,10 @@
       <c r="D13" s="1">
         <v>23</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="9">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <v>4</v>
       </c>
       <c r="G13" s="1">
@@ -1295,14 +1003,14 @@
       <c r="I13" s="1">
         <v>72</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="9">
         <v>88</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:33" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1312,10 +1020,10 @@
       <c r="D14" s="1">
         <v>21</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="9">
         <v>2</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>0</v>
       </c>
       <c r="G14" s="1">
@@ -1327,35 +1035,14 @@
       <c r="I14" s="1">
         <v>10</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="9">
         <v>15</v>
       </c>
       <c r="K14">
         <v>5</v>
       </c>
-      <c r="AA14" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB14" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC14" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD14" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE14" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF14" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG14" s="51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="2:33" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
@@ -1365,10 +1052,10 @@
       <c r="D15" s="1">
         <v>19.5</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="9">
         <v>3</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="11">
         <v>1</v>
       </c>
       <c r="G15" s="1">
@@ -1380,27 +1067,14 @@
       <c r="I15" s="1">
         <v>16</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="9">
         <v>59</v>
       </c>
       <c r="K15">
         <v>2</v>
       </c>
-      <c r="AA15" s="52"/>
-      <c r="AB15" s="52"/>
-      <c r="AC15" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD15" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE15" s="52"/>
-      <c r="AF15" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG15" s="52"/>
-    </row>
-    <row r="16" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
@@ -1410,10 +1084,10 @@
       <c r="D16" s="1">
         <v>21</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="9">
         <v>3.5</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="11">
         <v>1</v>
       </c>
       <c r="G16" s="1">
@@ -1425,35 +1099,14 @@
       <c r="I16" s="1">
         <v>17</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="9">
         <v>19</v>
       </c>
       <c r="K16">
         <v>2</v>
       </c>
-      <c r="AA16" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB16" s="46">
-        <v>390</v>
-      </c>
-      <c r="AC16" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD16" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE16" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF16" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG16" s="46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
@@ -1463,10 +1116,10 @@
       <c r="D17" s="1">
         <v>23.5</v>
       </c>
-      <c r="E17" s="10">
-        <v>1</v>
-      </c>
-      <c r="F17" s="12">
+      <c r="E17" s="9">
+        <v>1</v>
+      </c>
+      <c r="F17" s="11">
         <v>1</v>
       </c>
       <c r="G17" s="1">
@@ -1478,35 +1131,14 @@
       <c r="I17" s="1">
         <v>16</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="9">
         <v>19</v>
       </c>
       <c r="K17">
         <v>2</v>
       </c>
-      <c r="AA17" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB17" s="49">
-        <v>2.83</v>
-      </c>
-      <c r="AC17" s="50">
-        <v>73.06</v>
-      </c>
-      <c r="AD17" s="49">
-        <v>10.36</v>
-      </c>
-      <c r="AE17" s="50">
-        <v>27.7</v>
-      </c>
-      <c r="AF17" s="49">
-        <v>8.2799999999999994</v>
-      </c>
-      <c r="AG17" s="50">
-        <v>27.78</v>
-      </c>
-    </row>
-    <row r="18" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>13</v>
       </c>
@@ -1516,10 +1148,10 @@
       <c r="D18" s="1">
         <v>30.833333333333332</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="9">
         <v>5.333333333333333</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="11">
         <v>5</v>
       </c>
       <c r="G18" s="1">
@@ -1531,35 +1163,14 @@
       <c r="I18" s="1">
         <v>86</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="9">
         <v>98</v>
       </c>
       <c r="K18">
         <v>6</v>
       </c>
-      <c r="AA18" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB18" s="47">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="47">
-        <v>33</v>
-      </c>
-      <c r="AD18" s="47">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="47">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="47">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>14</v>
       </c>
@@ -1569,10 +1180,10 @@
       <c r="D19" s="1">
         <v>38</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="9">
         <v>5</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="11">
         <v>0</v>
       </c>
       <c r="G19" s="1">
@@ -1584,35 +1195,14 @@
       <c r="I19" s="1">
         <v>14</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="9">
         <v>20</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
-      <c r="AA19" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB19" s="50">
-        <v>17</v>
-      </c>
-      <c r="AC19" s="49">
-        <v>100</v>
-      </c>
-      <c r="AD19" s="49">
-        <v>49</v>
-      </c>
-      <c r="AE19" s="50">
-        <v>232</v>
-      </c>
-      <c r="AF19" s="49">
-        <v>21</v>
-      </c>
-      <c r="AG19" s="50">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="20" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
@@ -1622,10 +1212,10 @@
       <c r="D20" s="1">
         <v>22.5</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="9">
         <v>1.5</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="11">
         <v>1</v>
       </c>
       <c r="G20" s="1">
@@ -1637,35 +1227,14 @@
       <c r="I20" s="1">
         <v>16</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="9">
         <v>18</v>
       </c>
       <c r="K20">
         <v>2</v>
       </c>
-      <c r="AA20" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB20" s="46">
-        <v>2.54</v>
-      </c>
-      <c r="AC20" s="46">
-        <v>17.350000000000001</v>
-      </c>
-      <c r="AD20" s="47">
-        <v>7.82</v>
-      </c>
-      <c r="AE20" s="46">
-        <v>30.44</v>
-      </c>
-      <c r="AF20" s="47">
-        <v>5.58</v>
-      </c>
-      <c r="AG20" s="46">
-        <v>33.32</v>
-      </c>
-    </row>
-    <row r="21" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
@@ -1675,10 +1244,10 @@
       <c r="D21" s="1">
         <v>26</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="9">
         <v>3.5</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="11">
         <v>1</v>
       </c>
       <c r="G21" s="1">
@@ -1690,35 +1259,14 @@
       <c r="I21" s="1">
         <v>18</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="9">
         <v>24</v>
       </c>
       <c r="K21">
         <v>2</v>
       </c>
-      <c r="AA21" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB21" s="50">
-        <v>6.43</v>
-      </c>
-      <c r="AC21" s="50">
-        <v>301.13</v>
-      </c>
-      <c r="AD21" s="49">
-        <v>61.17</v>
-      </c>
-      <c r="AE21" s="50">
-        <v>926.8</v>
-      </c>
-      <c r="AF21" s="49">
-        <v>31.1</v>
-      </c>
-      <c r="AG21" s="50" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>17</v>
       </c>
@@ -1728,10 +1276,10 @@
       <c r="D22" s="1">
         <v>15.333333333333334</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="9">
         <v>2.3333333333333335</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="11">
         <v>1</v>
       </c>
       <c r="G22" s="1">
@@ -1743,14 +1291,14 @@
       <c r="I22" s="1">
         <v>20</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="9">
         <v>20</v>
       </c>
       <c r="K22">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
@@ -1760,10 +1308,10 @@
       <c r="D23" s="1">
         <v>23</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="9">
         <v>3.25</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="11">
         <v>3</v>
       </c>
       <c r="G23" s="1">
@@ -1775,14 +1323,14 @@
       <c r="I23" s="1">
         <v>44</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="9">
         <v>51</v>
       </c>
       <c r="K23">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>19</v>
       </c>
@@ -1792,10 +1340,10 @@
       <c r="D24" s="1">
         <v>20</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="9">
         <v>3.5</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="11">
         <v>1</v>
       </c>
       <c r="G24" s="1">
@@ -1807,14 +1355,14 @@
       <c r="I24" s="1">
         <v>19</v>
       </c>
-      <c r="J24" s="10">
+      <c r="J24" s="9">
         <v>21</v>
       </c>
       <c r="K24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>20</v>
       </c>
@@ -1824,10 +1372,10 @@
       <c r="D25" s="1">
         <v>30</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="9">
         <v>3.5</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="11">
         <v>1</v>
       </c>
       <c r="G25" s="1">
@@ -1839,14 +1387,14 @@
       <c r="I25" s="1">
         <v>24</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="9">
         <v>31</v>
       </c>
       <c r="K25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
         <v>21</v>
       </c>
@@ -1856,10 +1404,10 @@
       <c r="D26" s="1">
         <v>23.666666666666668</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="9">
         <v>1.6666666666666667</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="11">
         <v>1</v>
       </c>
       <c r="G26" s="1">
@@ -1871,14 +1419,14 @@
       <c r="I26" s="1">
         <v>28</v>
       </c>
-      <c r="J26" s="10">
+      <c r="J26" s="9">
         <v>31</v>
       </c>
       <c r="K26">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
         <v>22</v>
       </c>
@@ -1888,10 +1436,10 @@
       <c r="D27" s="1">
         <v>27</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="9">
         <v>3.8333333333333335</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="11">
         <v>7</v>
       </c>
       <c r="G27" s="1">
@@ -1903,14 +1451,14 @@
       <c r="I27" s="1">
         <v>83</v>
       </c>
-      <c r="J27" s="10">
+      <c r="J27" s="9">
         <v>97</v>
       </c>
       <c r="K27">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
         <v>23</v>
       </c>
@@ -1920,10 +1468,10 @@
       <c r="D28" s="1">
         <v>22.5</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="9">
         <v>2.5</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="11">
         <v>1</v>
       </c>
       <c r="G28" s="1">
@@ -1935,14 +1483,14 @@
       <c r="I28" s="1">
         <v>14</v>
       </c>
-      <c r="J28" s="10">
+      <c r="J28" s="9">
         <v>19</v>
       </c>
       <c r="K28">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
         <v>24</v>
       </c>
@@ -1952,10 +1500,10 @@
       <c r="D29" s="1">
         <v>26.666666666666668</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="9">
         <v>3.6666666666666665</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="11">
         <v>1</v>
       </c>
       <c r="G29" s="1">
@@ -1967,14 +1515,14 @@
       <c r="I29" s="1">
         <v>26</v>
       </c>
-      <c r="J29" s="10">
+      <c r="J29" s="9">
         <v>38</v>
       </c>
       <c r="K29">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
         <v>25</v>
       </c>
@@ -1984,10 +1532,10 @@
       <c r="D30" s="1">
         <v>29.5</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="9">
         <v>3</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="11">
         <v>1</v>
       </c>
       <c r="G30" s="1">
@@ -1999,14 +1547,14 @@
       <c r="I30" s="1">
         <v>22</v>
       </c>
-      <c r="J30" s="10">
+      <c r="J30" s="9">
         <v>26</v>
       </c>
       <c r="K30">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>26</v>
       </c>
@@ -2016,10 +1564,10 @@
       <c r="D31" s="1">
         <v>12</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="9">
         <v>1.2</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="11">
         <v>4</v>
       </c>
       <c r="G31" s="1">
@@ -2031,14 +1579,14 @@
       <c r="I31" s="1">
         <v>23</v>
       </c>
-      <c r="J31" s="10">
+      <c r="J31" s="9">
         <v>23</v>
       </c>
       <c r="K31">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
         <v>27</v>
       </c>
@@ -2048,10 +1596,10 @@
       <c r="D32" s="1">
         <v>41</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="9">
         <v>4</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="11">
         <v>0</v>
       </c>
       <c r="G32" s="1">
@@ -2063,14 +1611,14 @@
       <c r="I32" s="1">
         <v>26</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J32" s="9">
         <v>34</v>
       </c>
       <c r="K32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>28</v>
       </c>
@@ -2080,10 +1628,10 @@
       <c r="D33" s="1">
         <v>32.571428571428569</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="9">
         <v>4.7142857142857144</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="11">
         <v>7</v>
       </c>
       <c r="G33" s="1">
@@ -2095,14 +1643,14 @@
       <c r="I33" s="1">
         <v>184</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J33" s="9">
         <v>184</v>
       </c>
       <c r="K33">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
         <v>29</v>
       </c>
@@ -2112,10 +1660,10 @@
       <c r="D34" s="1">
         <v>29.727272727272727</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="9">
         <v>3.1818181818181817</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="11">
         <v>18</v>
       </c>
       <c r="G34" s="1">
@@ -2127,14 +1675,14 @@
       <c r="I34" s="1">
         <v>159</v>
       </c>
-      <c r="J34" s="10">
+      <c r="J34" s="9">
         <v>171</v>
       </c>
       <c r="K34">
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="3" t="s">
         <v>30</v>
       </c>
@@ -2144,10 +1692,10 @@
       <c r="D35" s="4">
         <v>30</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="10">
         <v>8.5</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="12">
         <v>7</v>
       </c>
       <c r="G35" s="4">
@@ -2159,361 +1707,102 @@
       <c r="I35" s="4">
         <v>110</v>
       </c>
-      <c r="J35" s="11">
+      <c r="J35" s="10">
         <v>144</v>
       </c>
-      <c r="K35" s="23">
+      <c r="K35" s="20">
         <v>6</v>
       </c>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B36" s="8" t="s">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B36" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="23">
         <f t="shared" ref="C36:J36" si="0">AVERAGE(C5:C35)</f>
         <v>68.336265884652974</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="23">
         <f t="shared" si="0"/>
         <v>25.539205418237671</v>
       </c>
-      <c r="E36" s="26">
+      <c r="E36" s="21">
         <f t="shared" si="0"/>
         <v>3.2514872224549647</v>
       </c>
-      <c r="F36" s="24">
+      <c r="F36" s="21">
         <f t="shared" si="0"/>
         <v>2.7419354838709675</v>
       </c>
-      <c r="G36" s="24">
+      <c r="G36" s="21">
         <f t="shared" si="0"/>
         <v>44.29032258064516</v>
       </c>
-      <c r="H36" s="24">
+      <c r="H36" s="21">
         <f t="shared" si="0"/>
         <v>52.612903225806448</v>
       </c>
-      <c r="I36" s="24">
+      <c r="I36" s="21">
         <f t="shared" si="0"/>
         <v>44.29032258064516</v>
       </c>
-      <c r="J36" s="25">
+      <c r="J36" s="24">
         <f t="shared" si="0"/>
         <v>52.612903225806448</v>
       </c>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-    </row>
-    <row r="37" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="C37" s="6" t="s">
+      <c r="K36" s="26"/>
+      <c r="L36" s="25">
+        <f>C36*LOG(D36,2)</f>
+        <v>319.44756052932024</v>
+      </c>
+      <c r="M36" s="25">
+        <f>171 - 5.2 * LN(L36) - 0.23 * (E36) - 16.2 * LN(H36)</f>
+        <v>76.065899010184012</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C37" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H37" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I37" s="6" t="s">
+      <c r="I37" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J37" s="9" t="s">
+      <c r="J37" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="Q37" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="R37" s="5">
-        <v>68.336265884652974</v>
-      </c>
-      <c r="S37" s="5">
-        <v>25.539205418237671</v>
-      </c>
-      <c r="T37" s="26">
-        <v>3.2514872224549647</v>
-      </c>
-      <c r="U37" s="24">
-        <v>2.7419354838709675</v>
-      </c>
-      <c r="V37" s="24">
-        <v>44.29032258064516</v>
-      </c>
-      <c r="W37" s="24">
-        <v>52.612903225806448</v>
-      </c>
-      <c r="X37" s="24">
-        <v>44.29032258064516</v>
-      </c>
-      <c r="Y37" s="24">
-        <v>52.612903225806448</v>
-      </c>
-    </row>
-    <row r="38" spans="2:34" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K37" s="5"/>
+      <c r="L37" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J38" s="1"/>
-      <c r="R38" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="S38" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="T38" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="U38" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="V38" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="W38" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="X38" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y38" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="2:34" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q40" t="s">
-        <v>43</v>
-      </c>
-      <c r="R40" s="26">
-        <v>78</v>
-      </c>
-      <c r="S40" s="24">
-        <v>31</v>
-      </c>
-      <c r="T40">
-        <v>2.75</v>
-      </c>
-      <c r="U40">
-        <v>2</v>
-      </c>
-      <c r="V40">
-        <v>41</v>
-      </c>
-      <c r="W40">
-        <v>37</v>
-      </c>
-      <c r="X40">
-        <v>41</v>
-      </c>
-      <c r="Y40">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="R41" t="s">
-        <v>32</v>
-      </c>
-      <c r="S41" t="s">
-        <v>33</v>
-      </c>
-      <c r="T41" t="s">
-        <v>34</v>
-      </c>
-      <c r="U41" t="s">
-        <v>35</v>
-      </c>
-      <c r="V41" t="s">
-        <v>36</v>
-      </c>
-      <c r="W41" t="s">
-        <v>37</v>
-      </c>
-      <c r="X41" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="2:34" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AH42" s="21"/>
-    </row>
-    <row r="45" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="46" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="Q46" s="34"/>
-      <c r="R46" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="S46" s="31"/>
-      <c r="T46" s="31"/>
-      <c r="U46" s="31"/>
-    </row>
-    <row r="47" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="Q47" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="R47" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="S47" s="33"/>
-      <c r="T47" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="U47" s="33"/>
-    </row>
-    <row r="48" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q48" s="23"/>
-      <c r="R48" s="32"/>
-      <c r="S48" s="32"/>
-      <c r="T48" s="32"/>
-      <c r="U48" s="32"/>
-    </row>
-    <row r="49" spans="16:21" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q49" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="R49" s="36">
-        <v>68.336265884652974</v>
-      </c>
-      <c r="S49" s="36"/>
-      <c r="T49" s="39">
-        <v>78</v>
-      </c>
-      <c r="U49" s="39"/>
-    </row>
-    <row r="50" spans="16:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="Q50" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="R50" s="37">
-        <v>25.539205418237671</v>
-      </c>
-      <c r="S50" s="37"/>
-      <c r="T50" s="40">
-        <v>31</v>
-      </c>
-      <c r="U50" s="40"/>
-    </row>
-    <row r="51" spans="16:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="Q51" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="R51" s="40">
-        <v>3.2514872224549647</v>
-      </c>
-      <c r="S51" s="40"/>
-      <c r="T51" s="37">
-        <v>2.75</v>
-      </c>
-      <c r="U51" s="37"/>
-    </row>
-    <row r="52" spans="16:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="Q52" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="R52" s="40">
-        <v>2.7419354838709675</v>
-      </c>
-      <c r="S52" s="40"/>
-      <c r="T52" s="37">
-        <v>2</v>
-      </c>
-      <c r="U52" s="37"/>
-    </row>
-    <row r="53" spans="16:21" x14ac:dyDescent="0.3">
-      <c r="P53" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q53" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="R53" s="40">
-        <v>44.29032258064516</v>
-      </c>
-      <c r="S53" s="40"/>
-      <c r="T53" s="37">
-        <v>41</v>
-      </c>
-      <c r="U53" s="37"/>
-    </row>
-    <row r="54" spans="16:21" x14ac:dyDescent="0.3">
-      <c r="Q54" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="R54" s="40">
-        <v>52.612903225806448</v>
-      </c>
-      <c r="S54" s="40"/>
-      <c r="T54" s="37">
-        <v>37</v>
-      </c>
-      <c r="U54" s="37"/>
-    </row>
-    <row r="55" spans="16:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="Q55" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="R55" s="40">
-        <v>44.29032258064516</v>
-      </c>
-      <c r="S55" s="40"/>
-      <c r="T55" s="37">
-        <v>41</v>
-      </c>
-      <c r="U55" s="37"/>
-    </row>
-    <row r="56" spans="16:21" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q56" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="R56" s="41">
-        <v>52.612903225806448</v>
-      </c>
-      <c r="S56" s="41"/>
-      <c r="T56" s="38">
-        <v>37</v>
-      </c>
-      <c r="U56" s="38"/>
-    </row>
-    <row r="62" spans="16:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q62" s="42" t="s">
-        <v>57</v>
-      </c>
-    </row>
+    </row>
+    <row r="40" spans="2:13" ht="85.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="2:13" ht="57" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="AE14:AE15"/>
-    <mergeCell ref="AG14:AG15"/>
-    <mergeCell ref="AA14:AA15"/>
-    <mergeCell ref="AB14:AB15"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="R56:S56"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="R54:S54"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="T51:U51"/>
+  <mergeCells count="1">
     <mergeCell ref="B2:J2"/>
-    <mergeCell ref="R46:U46"/>
-    <mergeCell ref="R47:S48"/>
-    <mergeCell ref="T47:U48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/results/SourceMeter/C - SourceMeter (RossetaCode).xlsx
+++ b/results/SourceMeter/C - SourceMeter (RossetaCode).xlsx
@@ -359,14 +359,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -650,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -665,17 +665,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
@@ -1719,11 +1719,11 @@
       <c r="B36" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="23">
+      <c r="C36" s="22">
         <f t="shared" ref="C36:J36" si="0">AVERAGE(C5:C35)</f>
         <v>68.336265884652974</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D36" s="22">
         <f t="shared" si="0"/>
         <v>25.539205418237671</v>
       </c>
@@ -1747,18 +1747,18 @@
         <f t="shared" si="0"/>
         <v>44.29032258064516</v>
       </c>
-      <c r="J36" s="24">
+      <c r="J36" s="23">
         <f t="shared" si="0"/>
         <v>52.612903225806448</v>
       </c>
-      <c r="K36" s="26"/>
-      <c r="L36" s="25">
+      <c r="K36" s="25"/>
+      <c r="L36" s="24">
         <f>C36*LOG(D36,2)</f>
         <v>319.44756052932024</v>
       </c>
-      <c r="M36" s="25">
-        <f>171 - 5.2 * LN(L36) - 0.23 * (E36) - 16.2 * LN(H36)</f>
-        <v>76.065899010184012</v>
+      <c r="M36" s="24">
+        <f>MAX(0,(171 - 5.2 * LN(L36) - 0.23 * (E36) - 16.2 *LN(H36))*100 / 171)</f>
+        <v>44.482981877300588</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.3">

--- a/results/SourceMeter/C - SourceMeter (RossetaCode).xlsx
+++ b/results/SourceMeter/C - SourceMeter (RossetaCode).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
   <si>
     <t>aks-test-for-primes.c</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t>MI</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>STDEV.P</t>
   </si>
 </sst>
 </file>
@@ -193,7 +199,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -293,10 +298,10 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="medium">
         <color indexed="64"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -304,9 +309,7 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -314,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -352,19 +355,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -648,49 +653,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M49"/>
+  <dimension ref="B2:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36:N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="13" max="13" width="8.109375" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.109375" customWidth="1"/>
     <col min="23" max="23" width="9.109375" customWidth="1"/>
     <col min="27" max="27" width="24.44140625" customWidth="1"/>
     <col min="28" max="28" width="47.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-    </row>
-    <row r="4" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="s">
         <v>31</v>
       </c>
@@ -718,11 +729,17 @@
       <c r="J4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
         <v>0</v>
       </c>
@@ -747,14 +764,22 @@
       <c r="I5" s="1">
         <v>36</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="17">
         <v>43</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L5" s="22">
+        <f>C5*LOG(D5,2)</f>
+        <v>204.24276015921237</v>
+      </c>
+      <c r="M5" s="23">
+        <f>MAX(0,(171 - 5.2 * LN(L5) - 0.23 * (E5) - 16.2 *LN(H5))*100 / 171)</f>
+        <v>47.721140253019001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
@@ -782,11 +807,19 @@
       <c r="J6" s="9">
         <v>51</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <f t="shared" ref="L6:L35" si="0">C6*LOG(D6,2)</f>
+        <v>360.30837744053531</v>
+      </c>
+      <c r="M6" s="23">
+        <f t="shared" ref="M6:M35" si="1">MAX(0,(171 - 5.2 * LN(L6) - 0.23 * (E6) - 16.2 *LN(H6))*100 / 171)</f>
+        <v>44.479375059784601</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
@@ -814,11 +847,19 @@
       <c r="J7" s="9">
         <v>33</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>347.10678765793324</v>
+      </c>
+      <c r="M7" s="23">
+        <f t="shared" si="1"/>
+        <v>48.683326677523823</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
@@ -846,11 +887,19 @@
       <c r="J8" s="9">
         <v>34</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="21">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>296.24612574155339</v>
+      </c>
+      <c r="M8" s="23">
+        <f t="shared" si="1"/>
+        <v>48.927154954066836</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
@@ -878,11 +927,19 @@
       <c r="J9" s="9">
         <v>45</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="21">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>456.66666666666663</v>
+      </c>
+      <c r="M9" s="23">
+        <f t="shared" si="1"/>
+        <v>44.865989241083646</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
@@ -910,11 +967,19 @@
       <c r="J10" s="9">
         <v>28</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="21">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>265.01933268345078</v>
+      </c>
+      <c r="M10" s="23">
+        <f t="shared" si="1"/>
+        <v>50.99316520207816</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
@@ -942,11 +1007,19 @@
       <c r="J11" s="9">
         <v>103</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="21">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>253.93051241840823</v>
+      </c>
+      <c r="M11" s="23">
+        <f t="shared" si="1"/>
+        <v>38.895521429173158</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
@@ -974,11 +1047,19 @@
       <c r="J12" s="9">
         <v>44</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>276.1508334407892</v>
+      </c>
+      <c r="M12" s="23">
+        <f t="shared" si="1"/>
+        <v>46.586083283955631</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
@@ -1006,11 +1087,19 @@
       <c r="J13" s="9">
         <v>88</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>255.12889432161552</v>
+      </c>
+      <c r="M13" s="23">
+        <f t="shared" si="1"/>
+        <v>40.435055790336087</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1038,11 +1127,19 @@
       <c r="J14" s="9">
         <v>15</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="21">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>153.73110979725664</v>
+      </c>
+      <c r="M14" s="23">
+        <f t="shared" si="1"/>
+        <v>58.764047108060034</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
@@ -1070,11 +1167,19 @@
       <c r="J15" s="9">
         <v>59</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="21">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>207.84200761481901</v>
+      </c>
+      <c r="M15" s="23">
+        <f t="shared" si="1"/>
+        <v>44.738389885827978</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
@@ -1102,11 +1207,19 @@
       <c r="J16" s="9">
         <v>19</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="21">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>173.49653819976103</v>
+      </c>
+      <c r="M16" s="23">
+        <f t="shared" si="1"/>
+        <v>55.95501098009958</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
@@ -1134,11 +1247,19 @@
       <c r="J17" s="9">
         <v>19</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="21">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>250.50238684227006</v>
+      </c>
+      <c r="M17" s="23">
+        <f t="shared" si="1"/>
+        <v>55.174299768295548</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>13</v>
       </c>
@@ -1166,11 +1287,19 @@
       <c r="J18" s="9">
         <v>98</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>542.45727925753556</v>
+      </c>
+      <c r="M18" s="23">
+        <f t="shared" si="1"/>
+        <v>36.700053590633047</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>14</v>
       </c>
@@ -1198,11 +1327,19 @@
       <c r="J19" s="9">
         <v>20</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>650.74301166700457</v>
+      </c>
+      <c r="M19" s="23">
+        <f t="shared" si="1"/>
+        <v>51.247333440238307</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
@@ -1230,11 +1367,19 @@
       <c r="J20" s="9">
         <v>18</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="21">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>159.46078491970346</v>
+      </c>
+      <c r="M20" s="23">
+        <f t="shared" si="1"/>
+        <v>56.992764777240176</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
@@ -1262,11 +1407,19 @@
       <c r="J21" s="9">
         <v>24</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>293.77748238381827</v>
+      </c>
+      <c r="M21" s="23">
+        <f t="shared" si="1"/>
+        <v>52.140263353256842</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>17</v>
       </c>
@@ -1294,11 +1447,19 @@
       <c r="J22" s="9">
         <v>20</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="21">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>119.47085014518765</v>
+      </c>
+      <c r="M22" s="23">
+        <f t="shared" si="1"/>
+        <v>56.760522790013979</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
@@ -1326,11 +1487,19 @@
       <c r="J23" s="9">
         <v>51</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>289.50796518764884</v>
+      </c>
+      <c r="M23" s="23">
+        <f t="shared" si="1"/>
+        <v>45.07741177581179</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>19</v>
       </c>
@@ -1358,11 +1527,19 @@
       <c r="J24" s="9">
         <v>21</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="21">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>179.36001593782555</v>
+      </c>
+      <c r="M24" s="23">
+        <f t="shared" si="1"/>
+        <v>54.905779098437165</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>20</v>
       </c>
@@ -1390,11 +1567,19 @@
       <c r="J25" s="9">
         <v>31</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="21">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>436.71326300915814</v>
+      </c>
+      <c r="M25" s="23">
+        <f t="shared" si="1"/>
+        <v>48.51003962927534</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
         <v>21</v>
       </c>
@@ -1422,11 +1607,19 @@
       <c r="J26" s="9">
         <v>31</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="21">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>345.40203615462019</v>
+      </c>
+      <c r="M26" s="23">
+        <f t="shared" si="1"/>
+        <v>49.46993382343085</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
         <v>22</v>
       </c>
@@ -1454,11 +1647,19 @@
       <c r="J27" s="9">
         <v>97</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>329.67220015000049</v>
+      </c>
+      <c r="M27" s="23">
+        <f t="shared" si="1"/>
+        <v>38.513392734795438</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
         <v>23</v>
       </c>
@@ -1486,11 +1687,19 @@
       <c r="J28" s="9">
         <v>19</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="21">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>190.90375659401118</v>
+      </c>
+      <c r="M28" s="23">
+        <f t="shared" si="1"/>
+        <v>55.798764685010219</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
         <v>24</v>
       </c>
@@ -1518,11 +1727,19 @@
       <c r="J29" s="9">
         <v>38</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="21">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>380.53623606468523</v>
+      </c>
+      <c r="M29" s="23">
+        <f t="shared" si="1"/>
+        <v>46.977513199043003</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
         <v>25</v>
       </c>
@@ -1550,11 +1767,19 @@
       <c r="J30" s="9">
         <v>26</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="21">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>371.08087175149996</v>
+      </c>
+      <c r="M30" s="23">
+        <f t="shared" si="1"/>
+        <v>50.738860800934944</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>26</v>
       </c>
@@ -1582,11 +1807,19 @@
       <c r="J31" s="9">
         <v>23</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="21">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>59.510377511971207</v>
+      </c>
+      <c r="M31" s="23">
+        <f t="shared" si="1"/>
+        <v>57.708192990373355</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
         <v>27</v>
       </c>
@@ -1614,11 +1847,19 @@
       <c r="J32" s="9">
         <v>34</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>471.46457640639136</v>
+      </c>
+      <c r="M32" s="23">
+        <f t="shared" si="1"/>
+        <v>47.334836759585485</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>28</v>
       </c>
@@ -1646,11 +1887,19 @@
       <c r="J33" s="9">
         <v>184</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="21">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L33">
+        <f t="shared" si="0"/>
+        <v>628.19188651339221</v>
+      </c>
+      <c r="M33" s="23">
+        <f t="shared" si="1"/>
+        <v>30.368981006015424</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
         <v>29</v>
       </c>
@@ -1678,11 +1927,19 @@
       <c r="J34" s="9">
         <v>171</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="21">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>367.47352371518264</v>
+      </c>
+      <c r="M34" s="23">
+        <f t="shared" si="1"/>
+        <v>32.89979274255203</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="3" t="s">
         <v>30</v>
       </c>
@@ -1713,93 +1970,156 @@
       <c r="K35" s="20">
         <v>6</v>
       </c>
-      <c r="M35" s="1"/>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L35">
+        <f t="shared" si="0"/>
+        <v>758.93241212078419</v>
+      </c>
+      <c r="M35" s="23">
+        <f t="shared" si="1"/>
+        <v>31.607063378768274</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="22">
-        <f t="shared" ref="C36:J36" si="0">AVERAGE(C5:C35)</f>
+      <c r="C36" s="19">
+        <f t="shared" ref="C36:M36" si="2">AVERAGE(C5:C35)</f>
         <v>68.336265884652974</v>
       </c>
-      <c r="D36" s="22">
-        <f t="shared" si="0"/>
+      <c r="D36" s="28">
+        <f t="shared" si="2"/>
         <v>25.539205418237671</v>
       </c>
-      <c r="E36" s="21">
-        <f t="shared" si="0"/>
+      <c r="E36" s="28">
+        <f t="shared" si="2"/>
         <v>3.2514872224549647</v>
       </c>
-      <c r="F36" s="21">
-        <f t="shared" si="0"/>
+      <c r="F36" s="28">
+        <f t="shared" si="2"/>
         <v>2.7419354838709675</v>
       </c>
-      <c r="G36" s="21">
-        <f t="shared" si="0"/>
+      <c r="G36" s="28">
+        <f t="shared" si="2"/>
         <v>44.29032258064516</v>
       </c>
-      <c r="H36" s="21">
-        <f t="shared" si="0"/>
+      <c r="H36" s="28">
+        <f t="shared" si="2"/>
         <v>52.612903225806448</v>
       </c>
-      <c r="I36" s="21">
-        <f t="shared" si="0"/>
+      <c r="I36" s="28">
+        <f t="shared" si="2"/>
         <v>44.29032258064516</v>
       </c>
-      <c r="J36" s="23">
-        <f t="shared" si="0"/>
+      <c r="J36" s="24">
+        <f t="shared" si="2"/>
         <v>52.612903225806448</v>
       </c>
-      <c r="K36" s="25"/>
-      <c r="L36" s="24">
-        <f>C36*LOG(D36,2)</f>
-        <v>319.44756052932024</v>
-      </c>
-      <c r="M36" s="24">
-        <f>MAX(0,(171 - 5.2 * LN(L36) - 0.23 * (E36) - 16.2 *LN(H36))*100 / 171)</f>
-        <v>44.482981877300588</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C37" s="5" t="s">
+      <c r="K36" s="24">
+        <f t="shared" si="2"/>
+        <v>3.5483870967741935</v>
+      </c>
+      <c r="L36" s="25">
+        <f t="shared" si="2"/>
+        <v>325.00099556369975</v>
+      </c>
+      <c r="M36" s="25">
+        <f t="shared" si="2"/>
+        <v>47.418389038990959</v>
+      </c>
+      <c r="N36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C37" s="19">
+        <f>_xlfn.STDEV.P(C5:C35)</f>
+        <v>29.66651782442511</v>
+      </c>
+      <c r="D37" s="19">
+        <f t="shared" ref="D37:M37" si="3">_xlfn.STDEV.P(D5:D35)</f>
+        <v>5.8923308669359713</v>
+      </c>
+      <c r="E37" s="19">
+        <f t="shared" si="3"/>
+        <v>1.3755362794142783</v>
+      </c>
+      <c r="F37" s="19">
+        <f t="shared" si="3"/>
+        <v>3.5100569054801145</v>
+      </c>
+      <c r="G37" s="19">
+        <f t="shared" si="3"/>
+        <v>42.428834951949987</v>
+      </c>
+      <c r="H37" s="19">
+        <f t="shared" si="3"/>
+        <v>44.752132707770031</v>
+      </c>
+      <c r="I37" s="19">
+        <f t="shared" si="3"/>
+        <v>42.428834951949987</v>
+      </c>
+      <c r="J37" s="19">
+        <f t="shared" si="3"/>
+        <v>44.752132707770031</v>
+      </c>
+      <c r="K37" s="27">
+        <f t="shared" si="3"/>
+        <v>2.3532915819147711</v>
+      </c>
+      <c r="L37" s="26">
+        <f t="shared" si="3"/>
+        <v>158.4722912723513</v>
+      </c>
+      <c r="M37" s="19">
+        <f t="shared" si="3"/>
+        <v>7.7016234124387344</v>
+      </c>
+      <c r="N37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C38" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D38" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E38" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F38" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G38" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="H38" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I37" s="5" t="s">
+      <c r="I38" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J37" s="8" t="s">
+      <c r="J38" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5" t="s">
+      <c r="K38" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="L38" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="M37" s="6" t="s">
+      <c r="M38" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="2:13" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J38" s="1"/>
-    </row>
-    <row r="40" spans="2:13" ht="85.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="2:13" ht="57" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:J2"/>
